--- a/Phenoloxidase Activity data/04. AEG 4 (91136).xlsx
+++ b/Phenoloxidase Activity data/04. AEG 4 (91136).xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="1" r:id="rId1"/>
-    <sheet name="AEG 4" sheetId="2" r:id="rId2"/>
+    <sheet name="1" sheetId="4" r:id="rId2"/>
     <sheet name="Phenoloxidase activity" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Sample</t>
   </si>
@@ -61,9 +64,6 @@
     <t>AEG - 4</t>
   </si>
   <si>
-    <t>Sample 91136</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -91,14 +91,17 @@
     <t>F9</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample - Blank </t>
+    <t>Sample 91153</t>
+  </si>
+  <si>
+    <t>Sample - Blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +123,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +178,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,8 +290,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3654418197725283E-2"/>
-                  <c:y val="-0.50848024205307674"/>
+                  <c:x val="-7.0321084864391953E-2"/>
+                  <c:y val="-0.36328156897054537"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -400,11 +418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243928200"/>
-        <c:axId val="243928584"/>
+        <c:axId val="284832776"/>
+        <c:axId val="284836304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243928200"/>
+        <c:axId val="284832776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,12 +479,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243928584"/>
+        <c:crossAx val="284836304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243928584"/>
+        <c:axId val="284836304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243928200"/>
+        <c:crossAx val="284832776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -792,11 +810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244059912"/>
-        <c:axId val="244054792"/>
+        <c:axId val="284833168"/>
+        <c:axId val="284838264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244059912"/>
+        <c:axId val="284833168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,12 +871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244054792"/>
+        <c:crossAx val="284838264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244054792"/>
+        <c:axId val="284838264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244059912"/>
+        <c:crossAx val="284833168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1056,8 +1074,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.766404199475066E-4"/>
-                  <c:y val="-0.43419473607465736"/>
+                  <c:x val="-0.1703210848643919"/>
+                  <c:y val="-0.33929935841353165"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1184,11 +1202,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244135568"/>
-        <c:axId val="244135952"/>
+        <c:axId val="284837088"/>
+        <c:axId val="284833560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244135568"/>
+        <c:axId val="284837088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,12 +1263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244135952"/>
+        <c:crossAx val="284833560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244135952"/>
+        <c:axId val="284833560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244135568"/>
+        <c:crossAx val="284837088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1448,8 +1466,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.1431603237095363"/>
-                  <c:y val="4.2129629629629626E-3"/>
+                  <c:x val="-0.42527143482064744"/>
+                  <c:y val="0.2012325021872266"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1484,7 +1502,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AEG 4'!$N$2:$N$12</c:f>
+              <c:f>'1'!$N$4:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1526,42 +1544,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AEG 4'!$O$2:$O$12</c:f>
+              <c:f>'1'!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.1466643015543694E-2</c:v>
+                  <c:v>1.1625000238418579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.1100004514058357E-2</c:v>
+                  <c:v>1.1732000112533569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0833382606506348E-2</c:v>
+                  <c:v>1.2064000368118286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9999922116597419E-2</c:v>
+                  <c:v>1.2273999452590942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0200025240580315E-2</c:v>
+                  <c:v>1.2351000308990479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3066671689351326E-2</c:v>
+                  <c:v>1.257099986076355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10393329461415601</c:v>
+                  <c:v>1.2842999696731567</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12056668599446607</c:v>
+                  <c:v>1.2946000099182129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12256666024525953</c:v>
+                  <c:v>1.2968000173568726</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13613339265187574</c:v>
+                  <c:v>1.3069000244140625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12023341655731201</c:v>
+                  <c:v>1.2891000509262085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,11 +1594,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243452576"/>
-        <c:axId val="243452960"/>
+        <c:axId val="36026520"/>
+        <c:axId val="36019072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243452576"/>
+        <c:axId val="36026520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,12 +1655,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243452960"/>
+        <c:crossAx val="36019072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243452960"/>
+        <c:axId val="36019072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243452576"/>
+        <c:crossAx val="36026520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1840,8 +1858,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.2830927384076986E-2"/>
-                  <c:y val="-1.784776902887139E-3"/>
+                  <c:x val="-0.40860476815398078"/>
+                  <c:y val="0.17087962962962963"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1876,7 +1894,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AEG 4'!$N$17:$N$27</c:f>
+              <c:f>'1'!$N$19:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1918,42 +1936,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AEG 4'!$O$17:$O$27</c:f>
+              <c:f>'1'!$O$19:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0933359464009529E-2</c:v>
+                  <c:v>1.2049000263214111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0599962870280022E-2</c:v>
+                  <c:v>1.2548999786376953</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.333336353302002E-2</c:v>
+                  <c:v>1.2889000177383423</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12199993928273511</c:v>
+                  <c:v>1.3093999624252319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14360002676645922</c:v>
+                  <c:v>1.3285000324249268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1676666339238484</c:v>
+                  <c:v>1.3516999483108521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22663327058156324</c:v>
+                  <c:v>1.406999945640564</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24516661961873365</c:v>
+                  <c:v>1.4191999435424805</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25666662057240797</c:v>
+                  <c:v>1.430899977684021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27643330891927076</c:v>
+                  <c:v>1.4471999406814575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29963338375091553</c:v>
+                  <c:v>1.468500018119812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,11 +1986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244703744"/>
-        <c:axId val="244706520"/>
+        <c:axId val="36022208"/>
+        <c:axId val="36022992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244703744"/>
+        <c:axId val="36022208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,12 +2047,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244706520"/>
+        <c:crossAx val="36022992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244706520"/>
+        <c:axId val="36022992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244703744"/>
+        <c:crossAx val="36022208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2155,6 +2173,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2231,8 +2250,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.4826990376202974E-2"/>
-                  <c:y val="-3.8701151939340914E-2"/>
+                  <c:x val="-0.44871587926509188"/>
+                  <c:y val="0.23767862350539515"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2267,7 +2286,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AEG 4'!$N$32:$N$42</c:f>
+              <c:f>'1'!$N$35:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2309,42 +2328,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AEG 4'!$O$32:$O$42</c:f>
+              <c:f>'1'!$O$35:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.7333348592122322E-2</c:v>
+                  <c:v>1.2113000154495239</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1500031153361077E-2</c:v>
+                  <c:v>1.2158000469207764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.923332691192627E-2</c:v>
+                  <c:v>1.2347999811172485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6400011380513435E-2</c:v>
+                  <c:v>1.2538000345230103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1800014177958245E-2</c:v>
+                  <c:v>1.2767000198364258</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11296673615773511</c:v>
+                  <c:v>1.2970000505447388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14253338177998853</c:v>
+                  <c:v>1.3229000568389893</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17236669858296705</c:v>
+                  <c:v>1.3464000225067139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19726665814717603</c:v>
+                  <c:v>1.3715000152587891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2250333627065022</c:v>
+                  <c:v>1.395799994468689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25303339958190918</c:v>
+                  <c:v>1.4219000339508057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2359,11 +2378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244705736"/>
-        <c:axId val="244706912"/>
+        <c:axId val="36020248"/>
+        <c:axId val="36020640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244705736"/>
+        <c:axId val="36020248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,12 +2439,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244706912"/>
+        <c:crossAx val="36020640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244706912"/>
+        <c:axId val="36020640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,7 +2501,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244705736"/>
+        <c:crossAx val="36020248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2546,391 +2565,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'AEG 4'!$N$48:$N$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'AEG 4'!$O$48:$O$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.4366656939188713E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1100014050801521E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.6667118072509766E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9199927647908455E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8500000635782952E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9366672833760505E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.2033375104268318E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.136661847432447E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5466693242390877E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1120333274205525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.12623333930969238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="244707304"/>
-        <c:axId val="244704168"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="244707304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="244704168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="244704168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="244707304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3007,8 +2642,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.260476815398075E-2"/>
-                  <c:y val="-2.9235199766695828E-2"/>
+                  <c:x val="-0.28727537182852142"/>
+                  <c:y val="3.1990740740740743E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3043,7 +2678,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AEG 4'!$N$63:$N$73</c:f>
+              <c:f>'1'!$N$51:$N$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3085,42 +2720,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AEG 4'!$O$63:$O$73</c:f>
+              <c:f>'1'!$O$51:$O$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-3.5666624704997485E-3</c:v>
+                  <c:v>1.1696000099182129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3000380198161547E-3</c:v>
+                  <c:v>1.1832000017166138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.313328742980957E-2</c:v>
+                  <c:v>1.1952999830245972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7799924214680916E-2</c:v>
+                  <c:v>1.2065999507904053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7599960962931389E-2</c:v>
+                  <c:v>1.2134000062942505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3466637929280525E-2</c:v>
+                  <c:v>1.2333999872207642</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7933281262715584E-2</c:v>
+                  <c:v>1.242400050163269</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8266690572102791E-2</c:v>
+                  <c:v>1.2553999423980713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.10256667931874586</c:v>
+                  <c:v>1.2697000503540039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12263341744740797</c:v>
+                  <c:v>1.2827999591827393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.14183342456817627</c:v>
+                  <c:v>1.2950999736785889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3135,11 +2770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244704952"/>
-        <c:axId val="244844776"/>
+        <c:axId val="36023384"/>
+        <c:axId val="36030440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244704952"/>
+        <c:axId val="36023384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,12 +2831,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244844776"/>
+        <c:crossAx val="36030440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244844776"/>
+        <c:axId val="36030440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3258,7 +2893,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244704952"/>
+        <c:crossAx val="36023384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3307,7 +2942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3322,6 +2957,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3396,6 +3032,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33204921259842518"/>
+                  <c:y val="0.12655584718576846"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3428,7 +3070,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'AEG 4'!$N$79:$N$89</c:f>
+              <c:f>'1'!$N$68:$N$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3470,42 +3112,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'AEG 4'!$O$79:$O$89</c:f>
+              <c:f>'1'!$O$68:$O$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.2133301099141365E-2</c:v>
+                  <c:v>1.1904000043869019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4099947611490959E-2</c:v>
+                  <c:v>1.1986000537872314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3133330345153809E-2</c:v>
+                  <c:v>1.2086999416351318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12890001138051344</c:v>
+                  <c:v>1.2151999473571777</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14720002810160326</c:v>
+                  <c:v>1.2224999666213989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17576666673024488</c:v>
+                  <c:v>1.2374999523162842</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19773336251576734</c:v>
+                  <c:v>1.2482999563217163</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22676666577657056</c:v>
+                  <c:v>1.2623000144958496</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24966665108998609</c:v>
+                  <c:v>1.2768000364303589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28123339017232252</c:v>
+                  <c:v>1.2934000492095947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31203341484069824</c:v>
+                  <c:v>1.3107000589370728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3520,11 +3162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244847520"/>
-        <c:axId val="244845560"/>
+        <c:axId val="36033184"/>
+        <c:axId val="36034360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244847520"/>
+        <c:axId val="36033184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,12 +3223,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244845560"/>
+        <c:crossAx val="36034360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244845560"/>
+        <c:axId val="36034360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3285,399 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244847520"/>
+        <c:crossAx val="36033184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34535476815398075"/>
+                  <c:y val="0.21254629629629629"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1'!$N$85:$N$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1'!$O$85:$O$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.226099967956543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2583999633789062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2886999845504761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3163000345230103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3321000337600708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3597999811172485</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3781000375747681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4007999897003174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4239000082015991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4520000219345093</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4809000492095947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="36031616"/>
+        <c:axId val="36032792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36031616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36032792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36032792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36031616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8798,18 +8832,20 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8825,21 +8861,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8857,19 +8895,21 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8885,21 +8925,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8915,21 +8957,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8946,20 +8990,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8974,6 +9020,558 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Blank "/>
+      <sheetName val="0"/>
+      <sheetName val="1"/>
+      <sheetName val="2"/>
+      <sheetName val="3"/>
+      <sheetName val="Phenol oxidase activity"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="N4">
+            <v>0</v>
+          </cell>
+          <cell r="O4">
+            <v>1.4206000566482544</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>3</v>
+          </cell>
+          <cell r="O5">
+            <v>1.4632999897003174</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>6</v>
+          </cell>
+          <cell r="O6">
+            <v>1.4937000274658203</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>9</v>
+          </cell>
+          <cell r="O7">
+            <v>1.5225000381469727</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>12</v>
+          </cell>
+          <cell r="O8">
+            <v>1.5699000358581543</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>15</v>
+          </cell>
+          <cell r="O9">
+            <v>1.6111999750137329</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>18</v>
+          </cell>
+          <cell r="O10">
+            <v>1.649399995803833</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>21</v>
+          </cell>
+          <cell r="O11">
+            <v>1.6750999689102173</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>24</v>
+          </cell>
+          <cell r="O12">
+            <v>1.6993999481201172</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>27</v>
+          </cell>
+          <cell r="O13">
+            <v>1.7266999483108521</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>30</v>
+          </cell>
+          <cell r="O14">
+            <v>1.7548999786376953</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>1.9702999591827393</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3</v>
+          </cell>
+          <cell r="O20">
+            <v>1.9997999668121338</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>6</v>
+          </cell>
+          <cell r="O21">
+            <v>2.0352001190185547</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>9</v>
+          </cell>
+          <cell r="O22">
+            <v>2.0601999759674072</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>12</v>
+          </cell>
+          <cell r="O23">
+            <v>2.0964999198913574</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>15</v>
+          </cell>
+          <cell r="O24">
+            <v>2.1254000663757324</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>18</v>
+          </cell>
+          <cell r="O25">
+            <v>2.1507000923156738</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>21</v>
+          </cell>
+          <cell r="O26">
+            <v>2.152400016784668</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>24</v>
+          </cell>
+          <cell r="O27">
+            <v>2.1628000736236572</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>27</v>
+          </cell>
+          <cell r="O28">
+            <v>2.1719000339508057</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>30</v>
+          </cell>
+          <cell r="O29">
+            <v>2.1888999938964844</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>1.7063000202178955</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>3</v>
+          </cell>
+          <cell r="O36">
+            <v>1.7470999956130981</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>6</v>
+          </cell>
+          <cell r="O37">
+            <v>1.8051999807357788</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>9</v>
+          </cell>
+          <cell r="O38">
+            <v>1.8631999492645264</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>12</v>
+          </cell>
+          <cell r="O39">
+            <v>1.9196000099182129</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>15</v>
+          </cell>
+          <cell r="O40">
+            <v>1.9716999530792236</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>18</v>
+          </cell>
+          <cell r="O41">
+            <v>2.0302000045776367</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>21</v>
+          </cell>
+          <cell r="O42">
+            <v>2.072700023651123</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>24</v>
+          </cell>
+          <cell r="O43">
+            <v>2.1182999610900879</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>27</v>
+          </cell>
+          <cell r="O44">
+            <v>2.1515998840332031</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>30</v>
+          </cell>
+          <cell r="O45">
+            <v>2.1879000663757324</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+          <cell r="O51">
+            <v>1.684499979019165</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>3</v>
+          </cell>
+          <cell r="O52">
+            <v>1.7110999822616577</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>6</v>
+          </cell>
+          <cell r="O53">
+            <v>1.7451000213623047</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>9</v>
+          </cell>
+          <cell r="O54">
+            <v>1.7877000570297241</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>12</v>
+          </cell>
+          <cell r="O55">
+            <v>1.8224999904632568</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>15</v>
+          </cell>
+          <cell r="O56">
+            <v>1.8592000007629395</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>18</v>
+          </cell>
+          <cell r="O57">
+            <v>1.8940999507904053</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="N58">
+            <v>21</v>
+          </cell>
+          <cell r="O58">
+            <v>1.9042999744415283</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="N59">
+            <v>24</v>
+          </cell>
+          <cell r="O59">
+            <v>1.9212000370025635</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="N60">
+            <v>27</v>
+          </cell>
+          <cell r="O60">
+            <v>1.9298000335693359</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="N61">
+            <v>30</v>
+          </cell>
+          <cell r="O61">
+            <v>1.9448000192642212</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="N68">
+            <v>0</v>
+          </cell>
+          <cell r="O68">
+            <v>1.8969000577926636</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="N69">
+            <v>3</v>
+          </cell>
+          <cell r="O69">
+            <v>1.9462000131607056</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="N70">
+            <v>6</v>
+          </cell>
+          <cell r="O70">
+            <v>1.9866000413894653</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="N71">
+            <v>9</v>
+          </cell>
+          <cell r="O71">
+            <v>2.0344998836517334</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="N72">
+            <v>12</v>
+          </cell>
+          <cell r="O72">
+            <v>2.0998001098632813</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="N73">
+            <v>15</v>
+          </cell>
+          <cell r="O73">
+            <v>2.1463000774383545</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="N74">
+            <v>18</v>
+          </cell>
+          <cell r="O74">
+            <v>2.1805000305175781</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="N75">
+            <v>21</v>
+          </cell>
+          <cell r="O75">
+            <v>2.2018001079559326</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76">
+            <v>24</v>
+          </cell>
+          <cell r="O76">
+            <v>2.2223000526428223</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77">
+            <v>27</v>
+          </cell>
+          <cell r="O77">
+            <v>2.2181000709533691</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78">
+            <v>30</v>
+          </cell>
+          <cell r="O78">
+            <v>2.2227001190185547</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="N85">
+            <v>0</v>
+          </cell>
+          <cell r="O85">
+            <v>1.4320000410079956</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="N86">
+            <v>3</v>
+          </cell>
+          <cell r="O86">
+            <v>1.4503999948501587</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="N87">
+            <v>6</v>
+          </cell>
+          <cell r="O87">
+            <v>1.4936000108718872</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="N88">
+            <v>9</v>
+          </cell>
+          <cell r="O88">
+            <v>1.5404000282287598</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="N89">
+            <v>12</v>
+          </cell>
+          <cell r="O89">
+            <v>1.6124999523162842</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="N90">
+            <v>15</v>
+          </cell>
+          <cell r="O90">
+            <v>1.6718000173568726</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="N91">
+            <v>18</v>
+          </cell>
+          <cell r="O91">
+            <v>1.7129000425338745</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="N92">
+            <v>21</v>
+          </cell>
+          <cell r="O92">
+            <v>1.7444000244140625</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="N93">
+            <v>24</v>
+          </cell>
+          <cell r="O93">
+            <v>1.7496999502182007</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="N94">
+            <v>27</v>
+          </cell>
+          <cell r="O94">
+            <v>1.7117999792098999</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="N95">
+            <v>30</v>
+          </cell>
+          <cell r="O95">
+            <v>1.6742000579833984</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9241,7 +9839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -9252,7 +9850,7 @@
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1.1771999597549438</v>
@@ -9290,7 +9888,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1.2236000299453735</v>
@@ -9328,7 +9926,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1.1811000108718872</v>
@@ -9592,1694 +10190,1119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O89"/>
+  <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O79" sqref="O79:O89"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1.1625000238418579</v>
-      </c>
-      <c r="C2">
-        <v>1.1732000112533569</v>
-      </c>
-      <c r="D2">
-        <v>1.2064000368118286</v>
-      </c>
-      <c r="E2">
-        <v>1.2273999452590942</v>
-      </c>
-      <c r="F2">
-        <v>1.2351000308990479</v>
-      </c>
-      <c r="G2">
-        <v>1.257099986076355</v>
-      </c>
-      <c r="H2">
-        <v>1.2842999696731567</v>
-      </c>
-      <c r="I2">
-        <v>1.2946000099182129</v>
-      </c>
-      <c r="J2">
-        <v>1.2968000173568726</v>
-      </c>
-      <c r="K2">
-        <v>1.3069000244140625</v>
-      </c>
-      <c r="L2">
-        <v>1.2891000509262085</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>-3.1466643015543694E-2</v>
-      </c>
-    </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C3">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D3">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E3">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F3">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G3">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H3">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I3">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J3">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K3">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L3">
-        <v>1.1608999967575073</v>
+        <v>20</v>
       </c>
       <c r="N3" s="6">
-        <v>3</v>
-      </c>
-      <c r="O3" s="6">
-        <v>-2.1100004514058357E-2</v>
+        <v>91153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
+      <c r="A4" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>1.2236000299453735</v>
+        <v>1.1625000238418579</v>
       </c>
       <c r="C4">
-        <v>1.2365000247955322</v>
+        <v>1.1732000112533569</v>
       </c>
       <c r="D4">
-        <v>1.2312999963760376</v>
+        <v>1.2064000368118286</v>
       </c>
       <c r="E4">
-        <v>1.2312999963760376</v>
+        <v>1.2273999452590942</v>
       </c>
       <c r="F4">
-        <v>1.2229000329971313</v>
+        <v>1.2351000308990479</v>
       </c>
       <c r="G4">
-        <v>1.2206000089645386</v>
+        <v>1.257099986076355</v>
       </c>
       <c r="H4">
-        <v>1.2158000469207764</v>
+        <v>1.2842999696731567</v>
       </c>
       <c r="I4">
-        <v>1.2079000473022461</v>
+        <v>1.2946000099182129</v>
       </c>
       <c r="J4">
-        <v>1.2072000503540039</v>
+        <v>1.2968000173568726</v>
       </c>
       <c r="K4">
-        <v>1.2002999782562256</v>
+        <v>1.3069000244140625</v>
       </c>
       <c r="L4">
-        <v>1.1993999481201172</v>
+        <v>1.2891000509262085</v>
       </c>
       <c r="N4" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6">
-        <v>1.0833382606506348E-2</v>
+        <f>B6</f>
+        <v>1.1625000238418579</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>1.1811000108718872</v>
-      </c>
-      <c r="C5">
-        <v>1.1672999858856201</v>
-      </c>
-      <c r="D5">
-        <v>1.163100004196167</v>
-      </c>
-      <c r="E5">
-        <v>1.1404000520706177</v>
-      </c>
-      <c r="F5">
-        <v>1.1430000066757202</v>
-      </c>
-      <c r="G5">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="H5">
-        <v>1.1482000350952148</v>
-      </c>
-      <c r="I5">
-        <v>1.1449999809265137</v>
-      </c>
-      <c r="J5">
-        <v>1.1471999883651733</v>
-      </c>
-      <c r="K5">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="L5">
-        <v>1.1462999582290649</v>
-      </c>
       <c r="N5" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O5" s="6">
-        <v>3.9999922116597419E-2</v>
+        <f>C6</f>
+        <v>1.1732000112533569</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <f>B2-(AVERAGE(B3:B5))</f>
-        <v>-3.1466643015543694E-2</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:L6" si="0">C2-(AVERAGE(C3:C5))</f>
-        <v>-2.1100004514058357E-2</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="6">
+        <f>B4</f>
+        <v>1.1625000238418579</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:L6" si="0">C4</f>
+        <v>1.1732000112533569</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>1.0833382606506348E-2</v>
-      </c>
-      <c r="E6">
+        <v>1.2064000368118286</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>3.9999922116597419E-2</v>
-      </c>
-      <c r="F6">
+        <v>1.2273999452590942</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>5.0200025240580315E-2</v>
-      </c>
-      <c r="G6">
+        <v>1.2351000308990479</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>7.3066671689351326E-2</v>
-      </c>
-      <c r="H6">
+        <v>1.257099986076355</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
-        <v>0.10393329461415601</v>
-      </c>
-      <c r="I6">
+        <v>1.2842999696731567</v>
+      </c>
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>0.12056668599446607</v>
-      </c>
-      <c r="J6">
+        <v>1.2946000099182129</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="0"/>
-        <v>0.12256666024525953</v>
-      </c>
-      <c r="K6">
+        <v>1.2968000173568726</v>
+      </c>
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
-        <v>0.13613339265187574</v>
-      </c>
-      <c r="L6">
+        <v>1.3069000244140625</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="0"/>
-        <v>0.12023341655731201</v>
+        <v>1.2891000509262085</v>
       </c>
       <c r="N6" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O6" s="6">
-        <v>5.0200025240580315E-2</v>
+        <f>D6</f>
+        <v>1.2064000368118286</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N7" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O7" s="6">
-        <v>7.3066671689351326E-2</v>
+        <f>E6</f>
+        <v>1.2273999452590942</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N8" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O8" s="6">
-        <v>0.10393329461415601</v>
+        <f>F6</f>
+        <v>1.2351000308990479</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N9" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O9" s="6">
-        <v>0.12056668599446607</v>
+        <f>G6</f>
+        <v>1.257099986076355</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N10" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O10" s="6">
-        <v>0.12256666024525953</v>
+        <f>H6</f>
+        <v>1.2842999696731567</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N11" s="6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O11" s="6">
-        <v>0.13613339265187574</v>
+        <f>I6</f>
+        <v>1.2946000099182129</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N12" s="6">
+        <v>24</v>
+      </c>
+      <c r="O12" s="6">
+        <f>J6</f>
+        <v>1.2968000173568726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" s="6">
+        <v>27</v>
+      </c>
+      <c r="O13" s="6">
+        <f>K6</f>
+        <v>1.3069000244140625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14" s="6">
         <v>30</v>
       </c>
-      <c r="O12" s="6">
-        <v>0.12023341655731201</v>
+      <c r="O14" s="6">
+        <f>L6</f>
+        <v>1.2891000509262085</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17">
-        <v>1.2049000263214111</v>
-      </c>
-      <c r="C17">
-        <v>1.2548999786376953</v>
-      </c>
-      <c r="D17">
-        <v>1.2889000177383423</v>
-      </c>
-      <c r="E17">
-        <v>1.3093999624252319</v>
-      </c>
-      <c r="F17">
-        <v>1.3285000324249268</v>
-      </c>
-      <c r="G17">
-        <v>1.3516999483108521</v>
-      </c>
-      <c r="H17">
-        <v>1.406999945640564</v>
-      </c>
-      <c r="I17">
-        <v>1.4191999435424805</v>
-      </c>
-      <c r="J17">
-        <v>1.430899977684021</v>
-      </c>
-      <c r="K17">
-        <v>1.4471999406814575</v>
-      </c>
-      <c r="L17">
-        <v>1.468500018119812</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1.0933359464009529E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C18">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D18">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E18">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F18">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G18">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H18">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I18">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J18">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K18">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L18">
-        <v>1.1608999967575073</v>
-      </c>
-      <c r="N18" s="6">
-        <v>3</v>
-      </c>
-      <c r="O18" s="6">
-        <v>6.0599962870280022E-2</v>
-      </c>
+      <c r="A17" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
+      <c r="A19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>1.2236000299453735</v>
+        <v>1.2049000263214111</v>
       </c>
       <c r="C19">
-        <v>1.2365000247955322</v>
+        <v>1.2548999786376953</v>
       </c>
       <c r="D19">
-        <v>1.2312999963760376</v>
+        <v>1.2889000177383423</v>
       </c>
       <c r="E19">
-        <v>1.2312999963760376</v>
+        <v>1.3093999624252319</v>
       </c>
       <c r="F19">
-        <v>1.2229000329971313</v>
+        <v>1.3285000324249268</v>
       </c>
       <c r="G19">
-        <v>1.2206000089645386</v>
+        <v>1.3516999483108521</v>
       </c>
       <c r="H19">
-        <v>1.2158000469207764</v>
+        <v>1.406999945640564</v>
       </c>
       <c r="I19">
-        <v>1.2079000473022461</v>
+        <v>1.4191999435424805</v>
       </c>
       <c r="J19">
-        <v>1.2072000503540039</v>
+        <v>1.430899977684021</v>
       </c>
       <c r="K19">
-        <v>1.2002999782562256</v>
+        <v>1.4471999406814575</v>
       </c>
       <c r="L19">
-        <v>1.1993999481201172</v>
+        <v>1.468500018119812</v>
       </c>
       <c r="N19" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6">
-        <v>9.333336353302002E-2</v>
+        <f>B21</f>
+        <v>1.2049000263214111</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>1.1811000108718872</v>
-      </c>
-      <c r="C20">
-        <v>1.1672999858856201</v>
-      </c>
-      <c r="D20">
-        <v>1.163100004196167</v>
-      </c>
-      <c r="E20">
-        <v>1.1404000520706177</v>
-      </c>
-      <c r="F20">
-        <v>1.1430000066757202</v>
-      </c>
-      <c r="G20">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="H20">
-        <v>1.1482000350952148</v>
-      </c>
-      <c r="I20">
-        <v>1.1449999809265137</v>
-      </c>
-      <c r="J20">
-        <v>1.1471999883651733</v>
-      </c>
-      <c r="K20">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="L20">
-        <v>1.1462999582290649</v>
-      </c>
       <c r="N20" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O20" s="6">
-        <v>0.12199993928273511</v>
+        <f>C21</f>
+        <v>1.2548999786376953</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <f>B17-(AVERAGE(B18:B20))</f>
-        <v>1.0933359464009529E-2</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:L21" si="1">C17-(AVERAGE(C18:C20))</f>
-        <v>6.0599962870280022E-2</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="6">
+        <f>B19</f>
+        <v>1.2049000263214111</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:L21" si="1">C19</f>
+        <v>1.2548999786376953</v>
+      </c>
+      <c r="D21" s="6">
         <f t="shared" si="1"/>
-        <v>9.333336353302002E-2</v>
-      </c>
-      <c r="E21">
+        <v>1.2889000177383423</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>0.12199993928273511</v>
-      </c>
-      <c r="F21">
+        <v>1.3093999624252319</v>
+      </c>
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
-        <v>0.14360002676645922</v>
-      </c>
-      <c r="G21">
+        <v>1.3285000324249268</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
-        <v>0.1676666339238484</v>
-      </c>
-      <c r="H21">
+        <v>1.3516999483108521</v>
+      </c>
+      <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>0.22663327058156324</v>
-      </c>
-      <c r="I21">
+        <v>1.406999945640564</v>
+      </c>
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>0.24516661961873365</v>
-      </c>
-      <c r="J21">
+        <v>1.4191999435424805</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="1"/>
-        <v>0.25666662057240797</v>
-      </c>
-      <c r="K21">
+        <v>1.430899977684021</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="1"/>
-        <v>0.27643330891927076</v>
-      </c>
-      <c r="L21">
+        <v>1.4471999406814575</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
-        <v>0.29963338375091553</v>
+        <v>1.468500018119812</v>
       </c>
       <c r="N21" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O21" s="6">
-        <v>0.14360002676645922</v>
+        <f>D21</f>
+        <v>1.2889000177383423</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N22" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O22" s="6">
-        <v>0.1676666339238484</v>
+        <f>E21</f>
+        <v>1.3093999624252319</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N23" s="6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O23" s="6">
-        <v>0.22663327058156324</v>
+        <f>F21</f>
+        <v>1.3285000324249268</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N24" s="6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O24" s="6">
-        <v>0.24516661961873365</v>
+        <f>G21</f>
+        <v>1.3516999483108521</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N25" s="6">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O25" s="6">
-        <v>0.25666662057240797</v>
+        <f>H21</f>
+        <v>1.406999945640564</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N26" s="6">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O26" s="6">
-        <v>0.27643330891927076</v>
+        <f>I21</f>
+        <v>1.4191999435424805</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N27" s="6">
+        <v>24</v>
+      </c>
+      <c r="O27" s="6">
+        <f>J21</f>
+        <v>1.430899977684021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N28" s="6">
+        <v>27</v>
+      </c>
+      <c r="O28" s="6">
+        <f>K21</f>
+        <v>1.4471999406814575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="6">
         <v>30</v>
       </c>
-      <c r="O27" s="6">
-        <v>0.29963338375091553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32">
-        <v>1.2113000154495239</v>
-      </c>
-      <c r="C32">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="D32">
-        <v>1.2347999811172485</v>
-      </c>
-      <c r="E32">
-        <v>1.2538000345230103</v>
-      </c>
-      <c r="F32">
-        <v>1.2767000198364258</v>
-      </c>
-      <c r="G32">
-        <v>1.2970000505447388</v>
-      </c>
-      <c r="H32">
-        <v>1.3229000568389893</v>
-      </c>
-      <c r="I32">
-        <v>1.3464000225067139</v>
-      </c>
-      <c r="J32">
-        <v>1.3715000152587891</v>
-      </c>
-      <c r="K32">
-        <v>1.395799994468689</v>
-      </c>
-      <c r="L32">
-        <v>1.4219000339508057</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>1.7333348592122322E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C33">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D33">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E33">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F33">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G33">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H33">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I33">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J33">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K33">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L33">
-        <v>1.1608999967575073</v>
-      </c>
-      <c r="N33" s="6">
-        <v>3</v>
-      </c>
-      <c r="O33" s="6">
-        <v>2.1500031153361077E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="C34">
-        <v>1.2365000247955322</v>
-      </c>
-      <c r="D34">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="E34">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="F34">
-        <v>1.2229000329971313</v>
-      </c>
-      <c r="G34">
-        <v>1.2206000089645386</v>
-      </c>
-      <c r="H34">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="I34">
-        <v>1.2079000473022461</v>
-      </c>
-      <c r="J34">
-        <v>1.2072000503540039</v>
-      </c>
-      <c r="K34">
-        <v>1.2002999782562256</v>
-      </c>
-      <c r="L34">
-        <v>1.1993999481201172</v>
-      </c>
-      <c r="N34" s="6">
-        <v>6</v>
-      </c>
-      <c r="O34" s="6">
-        <v>3.923332691192627E-2</v>
+      <c r="O29" s="6">
+        <f>L21</f>
+        <v>1.468500018119812</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
+      <c r="A35" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>1.1811000108718872</v>
+        <v>1.2113000154495239</v>
       </c>
       <c r="C35">
-        <v>1.1672999858856201</v>
+        <v>1.2158000469207764</v>
       </c>
       <c r="D35">
-        <v>1.163100004196167</v>
+        <v>1.2347999811172485</v>
       </c>
       <c r="E35">
-        <v>1.1404000520706177</v>
+        <v>1.2538000345230103</v>
       </c>
       <c r="F35">
-        <v>1.1430000066757202</v>
+        <v>1.2767000198364258</v>
       </c>
       <c r="G35">
-        <v>1.1477999687194824</v>
+        <v>1.2970000505447388</v>
       </c>
       <c r="H35">
-        <v>1.1482000350952148</v>
+        <v>1.3229000568389893</v>
       </c>
       <c r="I35">
-        <v>1.1449999809265137</v>
+        <v>1.3464000225067139</v>
       </c>
       <c r="J35">
-        <v>1.1471999883651733</v>
+        <v>1.3715000152587891</v>
       </c>
       <c r="K35">
-        <v>1.1477999687194824</v>
+        <v>1.395799994468689</v>
       </c>
       <c r="L35">
-        <v>1.1462999582290649</v>
+        <v>1.4219000339508057</v>
       </c>
       <c r="N35" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O35" s="6">
-        <v>6.6400011380513435E-2</v>
+        <f>B37</f>
+        <v>1.2113000154495239</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36">
-        <f>B32-(AVERAGE(B33:B35))</f>
-        <v>1.7333348592122322E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:L36" si="2">C32-(AVERAGE(C33:C35))</f>
-        <v>2.1500031153361077E-2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>3.923332691192627E-2</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>6.6400011380513435E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>9.1800014177958245E-2</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>0.11296673615773511</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="2"/>
-        <v>0.14253338177998853</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="2"/>
-        <v>0.17236669858296705</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>0.19726665814717603</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0.2250333627065022</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="2"/>
-        <v>0.25303339958190918</v>
-      </c>
       <c r="N36" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O36" s="6">
-        <v>9.1800014177958245E-2</v>
+        <f>C37</f>
+        <v>1.2158000469207764</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="6">
+        <f>B35</f>
+        <v>1.2113000154495239</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" ref="C37:L37" si="2">C35</f>
+        <v>1.2158000469207764</v>
+      </c>
+      <c r="D37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2347999811172485</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2538000345230103</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2767000198364258</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2970000505447388</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3229000568389893</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3464000225067139</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3715000152587891</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.395799994468689</v>
+      </c>
+      <c r="L37" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4219000339508057</v>
+      </c>
       <c r="N37" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O37" s="6">
-        <v>0.11296673615773511</v>
+        <f>D37</f>
+        <v>1.2347999811172485</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N38" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O38" s="6">
-        <v>0.14253338177998853</v>
+        <f>E37</f>
+        <v>1.2538000345230103</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N39" s="6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O39" s="6">
-        <v>0.17236669858296705</v>
+        <f>F37</f>
+        <v>1.2767000198364258</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N40" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O40" s="6">
-        <v>0.19726665814717603</v>
+        <f>G37</f>
+        <v>1.2970000505447388</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N41" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O41" s="6">
-        <v>0.2250333627065022</v>
+        <f>H37</f>
+        <v>1.3229000568389893</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N42" s="6">
+        <v>21</v>
+      </c>
+      <c r="O42" s="6">
+        <f>I37</f>
+        <v>1.3464000225067139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="N43" s="6">
+        <v>24</v>
+      </c>
+      <c r="O43" s="6">
+        <f>J37</f>
+        <v>1.3715000152587891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N44" s="6">
+        <v>27</v>
+      </c>
+      <c r="O44" s="6">
+        <f>K37</f>
+        <v>1.395799994468689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N45" s="6">
         <v>30</v>
       </c>
-      <c r="O42" s="6">
-        <v>0.25303339958190918</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48">
-        <v>1.1696000099182129</v>
-      </c>
-      <c r="C48">
-        <v>1.1832000017166138</v>
-      </c>
-      <c r="D48">
-        <v>1.1952999830245972</v>
-      </c>
-      <c r="E48">
-        <v>1.2065999507904053</v>
-      </c>
-      <c r="F48">
-        <v>1.2134000062942505</v>
-      </c>
-      <c r="G48">
-        <v>1.2333999872207642</v>
-      </c>
-      <c r="H48">
-        <v>1.242400050163269</v>
-      </c>
-      <c r="I48">
-        <v>1.2553999423980713</v>
-      </c>
-      <c r="J48">
-        <v>1.2697000503540039</v>
-      </c>
-      <c r="K48">
-        <v>1.2827999591827393</v>
-      </c>
-      <c r="L48">
-        <v>1.2950999736785889</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>-2.4366656939188713E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C49">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D49">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E49">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F49">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G49">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H49">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I49">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J49">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K49">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L49">
-        <v>1.1608999967575073</v>
-      </c>
-      <c r="N49" s="6">
-        <v>3</v>
-      </c>
-      <c r="O49" s="6">
-        <v>-1.1100014050801521E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="C50">
-        <v>1.2365000247955322</v>
-      </c>
-      <c r="D50">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="E50">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="F50">
-        <v>1.2229000329971313</v>
-      </c>
-      <c r="G50">
-        <v>1.2206000089645386</v>
-      </c>
-      <c r="H50">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="I50">
-        <v>1.2079000473022461</v>
-      </c>
-      <c r="J50">
-        <v>1.2072000503540039</v>
-      </c>
-      <c r="K50">
-        <v>1.2002999782562256</v>
-      </c>
-      <c r="L50">
-        <v>1.1993999481201172</v>
-      </c>
-      <c r="N50" s="6">
-        <v>6</v>
-      </c>
-      <c r="O50" s="6">
-        <v>-2.6667118072509766E-4</v>
+      <c r="O45" s="6">
+        <f>L37</f>
+        <v>1.4219000339508057</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>1.1811000108718872</v>
+        <v>1.1696000099182129</v>
       </c>
       <c r="C51">
-        <v>1.1672999858856201</v>
+        <v>1.1832000017166138</v>
       </c>
       <c r="D51">
-        <v>1.163100004196167</v>
+        <v>1.1952999830245972</v>
       </c>
       <c r="E51">
-        <v>1.1404000520706177</v>
+        <v>1.2065999507904053</v>
       </c>
       <c r="F51">
-        <v>1.1430000066757202</v>
+        <v>1.2134000062942505</v>
       </c>
       <c r="G51">
-        <v>1.1477999687194824</v>
+        <v>1.2333999872207642</v>
       </c>
       <c r="H51">
-        <v>1.1482000350952148</v>
+        <v>1.242400050163269</v>
       </c>
       <c r="I51">
-        <v>1.1449999809265137</v>
+        <v>1.2553999423980713</v>
       </c>
       <c r="J51">
-        <v>1.1471999883651733</v>
+        <v>1.2697000503540039</v>
       </c>
       <c r="K51">
-        <v>1.1477999687194824</v>
+        <v>1.2827999591827393</v>
       </c>
       <c r="L51">
-        <v>1.1462999582290649</v>
+        <v>1.2950999736785889</v>
       </c>
       <c r="N51" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O51" s="6">
-        <v>1.9199927647908455E-2</v>
+        <f>B53</f>
+        <v>1.1696000099182129</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52">
-        <f>B48-(AVERAGE(B49:B51))</f>
-        <v>-2.4366656939188713E-2</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:L52" si="3">C48-(AVERAGE(C49:C51))</f>
-        <v>-1.1100014050801521E-2</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="3"/>
-        <v>-2.6667118072509766E-4</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>1.9199927647908455E-2</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>2.8500000635782952E-2</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="3"/>
-        <v>4.9366672833760505E-2</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>6.2033375104268318E-2</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="3"/>
-        <v>8.136661847432447E-2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>9.5466693242390877E-2</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="3"/>
-        <v>0.1120333274205525</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="3"/>
-        <v>0.12623333930969238</v>
-      </c>
       <c r="N52" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O52" s="6">
-        <v>2.8500000635782952E-2</v>
+        <f>C53</f>
+        <v>1.1832000017166138</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="6">
+        <f>B51</f>
+        <v>1.1696000099182129</v>
+      </c>
+      <c r="C53" s="6">
+        <f t="shared" ref="C53:L53" si="3">C51</f>
+        <v>1.1832000017166138</v>
+      </c>
+      <c r="D53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1952999830245972</v>
+      </c>
+      <c r="E53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2065999507904053</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2134000062942505</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2333999872207642</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.242400050163269</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2553999423980713</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2697000503540039</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2827999591827393</v>
+      </c>
+      <c r="L53" s="6">
+        <f t="shared" si="3"/>
+        <v>1.2950999736785889</v>
+      </c>
       <c r="N53" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O53" s="6">
-        <v>4.9366672833760505E-2</v>
+        <f>D53</f>
+        <v>1.1952999830245972</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N54" s="6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O54" s="6">
-        <v>6.2033375104268318E-2</v>
+        <f>E53</f>
+        <v>1.2065999507904053</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N55" s="6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O55" s="6">
-        <v>8.136661847432447E-2</v>
+        <f>F53</f>
+        <v>1.2134000062942505</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N56" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O56" s="6">
-        <v>9.5466693242390877E-2</v>
+        <f>G53</f>
+        <v>1.2333999872207642</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N57" s="6">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="O57" s="6">
-        <v>0.1120333274205525</v>
+        <f>H53</f>
+        <v>1.242400050163269</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N58" s="6">
+        <v>21</v>
+      </c>
+      <c r="O58" s="6">
+        <f>I53</f>
+        <v>1.2553999423980713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N59" s="6">
+        <v>24</v>
+      </c>
+      <c r="O59" s="6">
+        <f>J53</f>
+        <v>1.2697000503540039</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N60" s="6">
+        <v>27</v>
+      </c>
+      <c r="O60" s="6">
+        <f>K53</f>
+        <v>1.2827999591827393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N61" s="6">
         <v>30</v>
       </c>
-      <c r="O58" s="6">
-        <v>0.12623333930969238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63">
-        <v>1.1904000043869019</v>
-      </c>
-      <c r="C63">
-        <v>1.1986000537872314</v>
-      </c>
-      <c r="D63">
-        <v>1.2086999416351318</v>
-      </c>
-      <c r="E63">
-        <v>1.2151999473571777</v>
-      </c>
-      <c r="F63">
-        <v>1.2224999666213989</v>
-      </c>
-      <c r="G63">
-        <v>1.2374999523162842</v>
-      </c>
-      <c r="H63">
-        <v>1.2482999563217163</v>
-      </c>
-      <c r="I63">
-        <v>1.2623000144958496</v>
-      </c>
-      <c r="J63">
-        <v>1.2768000364303589</v>
-      </c>
-      <c r="K63">
-        <v>1.2934000492095947</v>
-      </c>
-      <c r="L63">
-        <v>1.3107000589370728</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0</v>
-      </c>
-      <c r="O63" s="6">
-        <v>-3.5666624704997485E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B64">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C64">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D64">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E64">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F64">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G64">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H64">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I64">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J64">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K64">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L64">
-        <v>1.1608999967575073</v>
-      </c>
-      <c r="N64" s="6">
-        <v>3</v>
-      </c>
-      <c r="O64" s="6">
-        <v>4.3000380198161547E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="C65">
-        <v>1.2365000247955322</v>
-      </c>
-      <c r="D65">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="E65">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="F65">
-        <v>1.2229000329971313</v>
-      </c>
-      <c r="G65">
-        <v>1.2206000089645386</v>
-      </c>
-      <c r="H65">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="I65">
-        <v>1.2079000473022461</v>
-      </c>
-      <c r="J65">
-        <v>1.2072000503540039</v>
-      </c>
-      <c r="K65">
-        <v>1.2002999782562256</v>
-      </c>
-      <c r="L65">
-        <v>1.1993999481201172</v>
-      </c>
-      <c r="N65" s="6">
-        <v>6</v>
-      </c>
-      <c r="O65" s="6">
-        <v>1.313328742980957E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66">
-        <v>1.1811000108718872</v>
-      </c>
-      <c r="C66">
-        <v>1.1672999858856201</v>
-      </c>
-      <c r="D66">
-        <v>1.163100004196167</v>
-      </c>
-      <c r="E66">
-        <v>1.1404000520706177</v>
-      </c>
-      <c r="F66">
-        <v>1.1430000066757202</v>
-      </c>
-      <c r="G66">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="H66">
-        <v>1.1482000350952148</v>
-      </c>
-      <c r="I66">
-        <v>1.1449999809265137</v>
-      </c>
-      <c r="J66">
-        <v>1.1471999883651733</v>
-      </c>
-      <c r="K66">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="L66">
-        <v>1.1462999582290649</v>
-      </c>
-      <c r="N66" s="6">
-        <v>9</v>
-      </c>
-      <c r="O66" s="6">
-        <v>2.7799924214680916E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67">
-        <f>B63-(AVERAGE(B64:B66))</f>
-        <v>-3.5666624704997485E-3</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:L67" si="4">C63-(AVERAGE(C64:C66))</f>
-        <v>4.3000380198161547E-3</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="4"/>
-        <v>1.313328742980957E-2</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="4"/>
-        <v>2.7799924214680916E-2</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="4"/>
-        <v>3.7599960962931389E-2</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="4"/>
-        <v>5.3466637929280525E-2</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="4"/>
-        <v>6.7933281262715584E-2</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="4"/>
-        <v>8.8266690572102791E-2</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="4"/>
-        <v>0.10256667931874586</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="4"/>
-        <v>0.12263341744740797</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="4"/>
-        <v>0.14183342456817627</v>
-      </c>
-      <c r="N67" s="6">
-        <v>12</v>
-      </c>
-      <c r="O67" s="6">
-        <v>3.7599960962931389E-2</v>
+      <c r="O61" s="6">
+        <f>L53</f>
+        <v>1.2950999736785889</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68">
+        <v>1.1904000043869019</v>
+      </c>
+      <c r="C68">
+        <v>1.1986000537872314</v>
+      </c>
+      <c r="D68">
+        <v>1.2086999416351318</v>
+      </c>
+      <c r="E68">
+        <v>1.2151999473571777</v>
+      </c>
+      <c r="F68">
+        <v>1.2224999666213989</v>
+      </c>
+      <c r="G68">
+        <v>1.2374999523162842</v>
+      </c>
+      <c r="H68">
+        <v>1.2482999563217163</v>
+      </c>
+      <c r="I68">
+        <v>1.2623000144958496</v>
+      </c>
+      <c r="J68">
+        <v>1.2768000364303589</v>
+      </c>
+      <c r="K68">
+        <v>1.2934000492095947</v>
+      </c>
+      <c r="L68">
+        <v>1.3107000589370728</v>
+      </c>
       <c r="N68" s="6">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O68" s="6">
-        <v>5.3466637929280525E-2</v>
+        <f>B70</f>
+        <v>1.1904000043869019</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N69" s="6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="O69" s="6">
-        <v>6.7933281262715584E-2</v>
+        <f>C70</f>
+        <v>1.1986000537872314</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="6">
+        <f>B68</f>
+        <v>1.1904000043869019</v>
+      </c>
+      <c r="C70" s="6">
+        <f t="shared" ref="C70:L70" si="4">C68</f>
+        <v>1.1986000537872314</v>
+      </c>
+      <c r="D70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2086999416351318</v>
+      </c>
+      <c r="E70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2151999473571777</v>
+      </c>
+      <c r="F70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2224999666213989</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2374999523162842</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2482999563217163</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2623000144958496</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2768000364303589</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2934000492095947</v>
+      </c>
+      <c r="L70" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3107000589370728</v>
+      </c>
       <c r="N70" s="6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O70" s="6">
-        <v>8.8266690572102791E-2</v>
+        <f>D70</f>
+        <v>1.2086999416351318</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N71" s="6">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O71" s="6">
-        <v>0.10256667931874586</v>
+        <f>E70</f>
+        <v>1.2151999473571777</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N72" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="O72" s="6">
-        <v>0.12263341744740797</v>
+        <f>F70</f>
+        <v>1.2224999666213989</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N73" s="6">
+        <v>15</v>
+      </c>
+      <c r="O73" s="6">
+        <f>G70</f>
+        <v>1.2374999523162842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N74" s="6">
+        <v>18</v>
+      </c>
+      <c r="O74" s="6">
+        <f>H70</f>
+        <v>1.2482999563217163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N75" s="6">
+        <v>21</v>
+      </c>
+      <c r="O75" s="6">
+        <f>I70</f>
+        <v>1.2623000144958496</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N76" s="6">
+        <v>24</v>
+      </c>
+      <c r="O76" s="6">
+        <f>J70</f>
+        <v>1.2768000364303589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N77" s="6">
+        <v>27</v>
+      </c>
+      <c r="O77" s="6">
+        <f>K70</f>
+        <v>1.2934000492095947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N78" s="6">
         <v>30</v>
       </c>
-      <c r="O73" s="6">
-        <v>0.14183342456817627</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79">
-        <v>1.226099967956543</v>
-      </c>
-      <c r="C79">
-        <v>1.2583999633789062</v>
-      </c>
-      <c r="D79">
-        <v>1.2886999845504761</v>
-      </c>
-      <c r="E79">
-        <v>1.3163000345230103</v>
-      </c>
-      <c r="F79">
-        <v>1.3321000337600708</v>
-      </c>
-      <c r="G79">
-        <v>1.3597999811172485</v>
-      </c>
-      <c r="H79">
-        <v>1.3781000375747681</v>
-      </c>
-      <c r="I79">
-        <v>1.4007999897003174</v>
-      </c>
-      <c r="J79">
-        <v>1.4239000082015991</v>
-      </c>
-      <c r="K79">
-        <v>1.4520000219345093</v>
-      </c>
-      <c r="L79">
-        <v>1.4809000492095947</v>
-      </c>
-      <c r="N79" s="6">
-        <v>0</v>
-      </c>
-      <c r="O79" s="6">
-        <v>3.2133301099141365E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80">
-        <v>1.1771999597549438</v>
-      </c>
-      <c r="C80">
-        <v>1.1791000366210937</v>
-      </c>
-      <c r="D80">
-        <v>1.1922999620437622</v>
-      </c>
-      <c r="E80">
-        <v>1.190500020980835</v>
-      </c>
-      <c r="F80">
-        <v>1.1887999773025513</v>
-      </c>
-      <c r="G80">
-        <v>1.1836999654769897</v>
-      </c>
-      <c r="H80">
-        <v>1.1770999431610107</v>
-      </c>
-      <c r="I80">
-        <v>1.1691999435424805</v>
-      </c>
-      <c r="J80">
-        <v>1.1683000326156616</v>
-      </c>
-      <c r="K80">
-        <v>1.1641999483108521</v>
-      </c>
-      <c r="L80">
-        <v>1.1608999967575073</v>
-      </c>
-      <c r="N80" s="6">
-        <v>3</v>
-      </c>
-      <c r="O80" s="6">
-        <v>6.4099947611490959E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81">
-        <v>1.2236000299453735</v>
-      </c>
-      <c r="C81">
-        <v>1.2365000247955322</v>
-      </c>
-      <c r="D81">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="E81">
-        <v>1.2312999963760376</v>
-      </c>
-      <c r="F81">
-        <v>1.2229000329971313</v>
-      </c>
-      <c r="G81">
-        <v>1.2206000089645386</v>
-      </c>
-      <c r="H81">
-        <v>1.2158000469207764</v>
-      </c>
-      <c r="I81">
-        <v>1.2079000473022461</v>
-      </c>
-      <c r="J81">
-        <v>1.2072000503540039</v>
-      </c>
-      <c r="K81">
-        <v>1.2002999782562256</v>
-      </c>
-      <c r="L81">
-        <v>1.1993999481201172</v>
-      </c>
-      <c r="N81" s="6">
-        <v>6</v>
-      </c>
-      <c r="O81" s="6">
-        <v>9.3133330345153809E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82">
-        <v>1.1811000108718872</v>
-      </c>
-      <c r="C82">
-        <v>1.1672999858856201</v>
-      </c>
-      <c r="D82">
-        <v>1.163100004196167</v>
-      </c>
-      <c r="E82">
-        <v>1.1404000520706177</v>
-      </c>
-      <c r="F82">
-        <v>1.1430000066757202</v>
-      </c>
-      <c r="G82">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="H82">
-        <v>1.1482000350952148</v>
-      </c>
-      <c r="I82">
-        <v>1.1449999809265137</v>
-      </c>
-      <c r="J82">
-        <v>1.1471999883651733</v>
-      </c>
-      <c r="K82">
-        <v>1.1477999687194824</v>
-      </c>
-      <c r="L82">
-        <v>1.1462999582290649</v>
-      </c>
-      <c r="N82" s="6">
-        <v>9</v>
-      </c>
-      <c r="O82" s="6">
-        <v>0.12890001138051344</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83">
-        <f>B79-(AVERAGE(B80:B82))</f>
-        <v>3.2133301099141365E-2</v>
-      </c>
-      <c r="C83">
-        <f t="shared" ref="C83:L83" si="5">C79-(AVERAGE(C80:C82))</f>
-        <v>6.4099947611490959E-2</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="5"/>
-        <v>9.3133330345153809E-2</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="5"/>
-        <v>0.12890001138051344</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="5"/>
-        <v>0.14720002810160326</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="5"/>
-        <v>0.17576666673024488</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="5"/>
-        <v>0.19773336251576734</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="5"/>
-        <v>0.22676666577657056</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="5"/>
-        <v>0.24966665108998609</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="5"/>
-        <v>0.28123339017232252</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="5"/>
-        <v>0.31203341484069824</v>
-      </c>
-      <c r="N83" s="6">
-        <v>12</v>
-      </c>
-      <c r="O83" s="6">
-        <v>0.14720002810160326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N84" s="6">
-        <v>15</v>
-      </c>
-      <c r="O84" s="6">
-        <v>0.17576666673024488</v>
+      <c r="O78" s="6">
+        <f>L70</f>
+        <v>1.3107000589370728</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85">
+        <v>1.226099967956543</v>
+      </c>
+      <c r="C85">
+        <v>1.2583999633789062</v>
+      </c>
+      <c r="D85">
+        <v>1.2886999845504761</v>
+      </c>
+      <c r="E85">
+        <v>1.3163000345230103</v>
+      </c>
+      <c r="F85">
+        <v>1.3321000337600708</v>
+      </c>
+      <c r="G85">
+        <v>1.3597999811172485</v>
+      </c>
+      <c r="H85">
+        <v>1.3781000375747681</v>
+      </c>
+      <c r="I85">
+        <v>1.4007999897003174</v>
+      </c>
+      <c r="J85">
+        <v>1.4239000082015991</v>
+      </c>
+      <c r="K85">
+        <v>1.4520000219345093</v>
+      </c>
+      <c r="L85">
+        <v>1.4809000492095947</v>
+      </c>
       <c r="N85" s="6">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O85" s="6">
-        <v>0.19773336251576734</v>
+        <f>B87</f>
+        <v>1.226099967956543</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N86" s="6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="O86" s="6">
-        <v>0.22676666577657056</v>
+        <f>C87</f>
+        <v>1.2583999633789062</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="6">
+        <f>B85</f>
+        <v>1.226099967956543</v>
+      </c>
+      <c r="C87" s="6">
+        <f t="shared" ref="C87:L87" si="5">C85</f>
+        <v>1.2583999633789062</v>
+      </c>
+      <c r="D87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.2886999845504761</v>
+      </c>
+      <c r="E87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3163000345230103</v>
+      </c>
+      <c r="F87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3321000337600708</v>
+      </c>
+      <c r="G87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3597999811172485</v>
+      </c>
+      <c r="H87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3781000375747681</v>
+      </c>
+      <c r="I87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4007999897003174</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4239000082015991</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4520000219345093</v>
+      </c>
+      <c r="L87" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4809000492095947</v>
+      </c>
       <c r="N87" s="6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="O87" s="6">
-        <v>0.24966665108998609</v>
+        <f>D87</f>
+        <v>1.2886999845504761</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N88" s="6">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="O88" s="6">
-        <v>0.28123339017232252</v>
+        <f>E87</f>
+        <v>1.3163000345230103</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N89" s="6">
+        <v>12</v>
+      </c>
+      <c r="O89" s="6">
+        <f>F87</f>
+        <v>1.3321000337600708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N90" s="6">
+        <v>15</v>
+      </c>
+      <c r="O90" s="6">
+        <f>G87</f>
+        <v>1.3597999811172485</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N91" s="6">
+        <v>18</v>
+      </c>
+      <c r="O91" s="6">
+        <f>H87</f>
+        <v>1.3781000375747681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N92" s="6">
+        <v>21</v>
+      </c>
+      <c r="O92" s="6">
+        <f>I87</f>
+        <v>1.4007999897003174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N93" s="6">
+        <v>24</v>
+      </c>
+      <c r="O93" s="6">
+        <f>J87</f>
+        <v>1.4239000082015991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N94" s="6">
+        <v>27</v>
+      </c>
+      <c r="O94" s="6">
+        <f>K87</f>
+        <v>1.4520000219345093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N95" s="6">
         <v>30</v>
       </c>
-      <c r="O89" s="6">
-        <v>0.31203341484069824</v>
+      <c r="O95" s="6">
+        <f>L87</f>
+        <v>1.4809000492095947</v>
       </c>
     </row>
   </sheetData>
@@ -11293,8 +11316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11348,28 +11371,28 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.8999999999999999E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="E2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F2">
         <f>D2-E2</f>
-        <v>5.7000000000000002E-3</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="G2">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H2">
         <f>F2/G2</f>
-        <v>8.9622641509433956E-2</v>
+        <v>7.3899371069182387E-2</v>
       </c>
       <c r="I2" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J2" s="4">
         <f>(H2*60*50000*100)/(1000*50*0.6*I2)</f>
-        <v>14.195772150385526</v>
+        <v>11.705285808212626</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -11379,28 +11402,28 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>9.4999999999999998E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E3">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">D3-E3</f>
-        <v>9.2999999999999992E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G3">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">F3/G3</f>
-        <v>0.14622641509433959</v>
+        <v>0.13050314465408805</v>
       </c>
       <c r="I3" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J4" si="2">(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>23.161522982207959</v>
+        <v>20.671036640035066</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -11410,28 +11433,28 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>8.3000000000000001E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="E4">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>8.0999999999999996E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="G4">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.12735849056603771</v>
+        <v>0.11163522012578617</v>
       </c>
       <c r="I4" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>20.172939371600485</v>
+        <v>17.682453029427588</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -11441,28 +11464,28 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>5.1000000000000004E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="E5">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F5">
         <f>D5-E5</f>
-        <v>4.9000000000000007E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H5">
         <f>F5/G5</f>
-        <v>7.7044025157232715E-2</v>
+        <v>6.2893081761006289E-2</v>
       </c>
       <c r="I5" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J5" s="4">
         <f>(H5*60*50000*100)/(1000*50*0.6*I5)</f>
-        <v>12.20338307664721</v>
+        <v>9.9619453686915982</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -11472,28 +11495,28 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>4.8999999999999998E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E6">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F7" si="3">D6-E6</f>
-        <v>4.7000000000000002E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="G6">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ref="H6:H7" si="4">F6/G6</f>
-        <v>7.3899371069182387E-2</v>
+        <v>5.9748427672955969E-2</v>
       </c>
       <c r="I6" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ref="J6:J7" si="5">(H6*60*50000*100)/(1000*50*0.6*I6)</f>
-        <v>11.705285808212626</v>
+        <v>9.4638481002570174</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -11503,28 +11526,28 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>8.9999999999999993E-3</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="E7">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>8.7999999999999988E-3</v>
+        <v>7.899999999999999E-3</v>
       </c>
       <c r="G7">
         <v>6.3600000000000004E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>0.13836477987421381</v>
+        <v>0.12421383647798739</v>
       </c>
       <c r="I7" s="4">
         <v>63.133333333333333</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="5"/>
-        <v>21.916279811121509</v>
+        <v>19.674842103165901</v>
       </c>
     </row>
   </sheetData>
